--- a/doc/详细设计/协议/功能权限划分表.xlsx
+++ b/doc/详细设计/协议/功能权限划分表.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DFD1DA-2E9E-49F9-B8BE-A551C077B65B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,119 +20,187 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
-  <si>
-    <t xml:space="preserve"> 生产</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 品质</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 工程</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看所有排位表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传排位表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看指定排位表的内容</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据条件查看客户报表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据条件下载客户报表excel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据线号查看该产线最近24个小时的操作成功率报表数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据条件查看操作报表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据条件下载操作报表excel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加一个用户</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据条件查看用户</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改系统配置项</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看系统配置项</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>作废一项工单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成一项工单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始一项工单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改指定工号的用户信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                                   角色
-功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>SMT防错料系统功能权限划分表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>备注：请在拥有该功能权限的角色下写“1”</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0：仓库操作员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：IPQC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3：超级管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4：生产管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5：品质管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6：工程管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                   类型：角色
+接口：功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：产线操作员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/program/listItem：查看指定站位表的内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/operation/listClientReport：根据条件查看客户报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/operation/downloadClientReport：根据条件下载客户报表excel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/operation/listStockLogs：根据条件查看仓库出入库报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/operation/listOperationReportSummary：根据条件查看操作报表</t>
+  </si>
+  <si>
+    <t>/operation/listOperationReport：查看操作报表详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/operation/downloadOperationReport：根据条件下载操作报表excel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/material/update：更新物料保质期信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getStatusDetailsByDay：实时
+监控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getStatusDetails：实时
+监控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/material/list：查看物料保质期
+信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/material/delete：删除物料保质期
+信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/material/add：添加物料保质期
+信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/config/set：修改系统报警配
+置项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/config/list：查看系统报警配
+置项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/program/upload：上传站
+位表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/program/list：查看所有站
+位表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/program/start：开始一项
+工单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/program/finish：完成一项
+工单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/program/cancel：作废一项
+工单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/program/download：下载标准站
+位表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用APP客户端进行产线操作员的上料、换料、全检操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用APP客户端进行IPQC的核料
+、全检操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7：仓库管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/add：增加对应类型的
+用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/update：修改对应类型指定工号的用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/list：根据条件查看对应类型的
+用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用APP客户端进行发料
+操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -142,23 +211,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,6 +268,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.24994659260841701"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,40 +425,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -663,254 +756,686 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" activeCellId="1" sqref="F6 H4"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B36" sqref="B35:B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="1" max="1" width="43.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+    </row>
+    <row r="3" spans="1:12" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+    </row>
+    <row r="4" spans="1:12" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="16">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10">
+        <v>1</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+    </row>
+    <row r="5" spans="1:12" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="16">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10">
+        <v>1</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+    </row>
+    <row r="6" spans="1:12" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="16">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="11"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+    </row>
+    <row r="7" spans="1:12" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="16">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="11"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+    </row>
+    <row r="8" spans="1:12" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="16">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10">
+        <v>1</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+    </row>
+    <row r="9" spans="1:12" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="16">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10">
+        <v>1</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+    </row>
+    <row r="10" spans="1:12" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="16">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+    </row>
+    <row r="11" spans="1:12" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="16">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9">
+        <v>1</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+    </row>
+    <row r="12" spans="1:12" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="16">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9">
+        <v>1</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="11"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+    </row>
+    <row r="13" spans="1:12" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="16">
+        <v>1</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9">
+        <v>1</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="11"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+    </row>
+    <row r="14" spans="1:12" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="16">
+        <v>1</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9">
+        <v>1</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="11"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+    </row>
+    <row r="15" spans="1:12" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="16">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="9">
+        <v>1</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="11"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+    </row>
+    <row r="16" spans="1:12" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="9">
+        <v>1</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="11"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+    </row>
+    <row r="17" spans="1:12" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="16">
+        <v>1</v>
+      </c>
+      <c r="F17" s="8">
+        <v>1</v>
+      </c>
+      <c r="G17" s="9">
+        <v>1</v>
+      </c>
+      <c r="H17" s="10">
+        <v>1</v>
+      </c>
+      <c r="I17" s="11">
+        <v>1</v>
+      </c>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+    </row>
+    <row r="18" spans="1:12" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="16">
+        <v>1</v>
+      </c>
+      <c r="F18" s="8">
+        <v>1</v>
+      </c>
+      <c r="G18" s="9">
+        <v>1</v>
+      </c>
+      <c r="H18" s="10">
+        <v>1</v>
+      </c>
+      <c r="I18" s="11">
+        <v>1</v>
+      </c>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+    </row>
+    <row r="19" spans="1:12" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="16">
+        <v>1</v>
+      </c>
+      <c r="F19" s="8">
+        <v>1</v>
+      </c>
+      <c r="G19" s="9">
+        <v>1</v>
+      </c>
+      <c r="H19" s="10">
+        <v>1</v>
+      </c>
+      <c r="I19" s="11">
+        <v>1</v>
+      </c>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+    </row>
+    <row r="20" spans="1:12" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="16">
+        <v>1</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="11"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+    </row>
+    <row r="21" spans="1:12" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="16">
+        <v>1</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="11"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+    </row>
+    <row r="22" spans="1:12" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="B22" s="11"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="16">
+        <v>1</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="14">
+        <v>1</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="11"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+    </row>
+    <row r="23" spans="1:12" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="16">
+        <v>1</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="14">
+        <v>1</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="11"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+    </row>
+    <row r="24" spans="1:12" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B24" s="11"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="16">
+        <v>1</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="14">
+        <v>1</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="11"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+    </row>
+    <row r="25" spans="1:12" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10">
-        <v>1</v>
-      </c>
-      <c r="E4" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10">
-        <v>1</v>
-      </c>
-      <c r="E5" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="B25" s="11"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="16">
+        <v>1</v>
+      </c>
+      <c r="F25" s="13"/>
+      <c r="G25" s="14">
+        <v>1</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="11"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+    </row>
+    <row r="26" spans="1:12" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="11">
+        <v>1</v>
+      </c>
+      <c r="C26" s="8">
+        <v>1</v>
+      </c>
+      <c r="D26" s="9">
+        <v>1</v>
+      </c>
+      <c r="E26" s="16">
+        <v>1</v>
+      </c>
+      <c r="F26" s="13">
+        <v>1</v>
+      </c>
+      <c r="G26" s="14">
+        <v>1</v>
+      </c>
+      <c r="H26" s="15">
+        <v>1</v>
+      </c>
+      <c r="I26" s="11">
+        <v>1</v>
+      </c>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+    </row>
+    <row r="27" spans="1:12" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="8">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="8">
-        <v>1</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10">
-        <v>1</v>
-      </c>
-      <c r="E8" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10">
-        <v>1</v>
-      </c>
-      <c r="E9" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9">
-        <v>1</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9">
-        <v>1</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9">
-        <v>1</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9">
-        <v>1</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9">
-        <v>1</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="11">
-        <v>1</v>
-      </c>
+      <c r="B27" s="11">
+        <v>1</v>
+      </c>
+      <c r="C27" s="8">
+        <v>1</v>
+      </c>
+      <c r="D27" s="9">
+        <v>1</v>
+      </c>
+      <c r="E27" s="16">
+        <v>1</v>
+      </c>
+      <c r="F27" s="13">
+        <v>1</v>
+      </c>
+      <c r="G27" s="14">
+        <v>1</v>
+      </c>
+      <c r="H27" s="15">
+        <v>1</v>
+      </c>
+      <c r="I27" s="11">
+        <v>1</v>
+      </c>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+    </row>
+    <row r="29" spans="1:12" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="8">
+        <v>1</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="16">
+        <v>1</v>
+      </c>
+      <c r="F29" s="13"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="11"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+    </row>
+    <row r="30" spans="1:12" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9">
+        <v>1</v>
+      </c>
+      <c r="E30" s="16">
+        <v>1</v>
+      </c>
+      <c r="F30" s="13"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="11"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+    </row>
+    <row r="31" spans="1:12" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="11">
+        <v>1</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="16">
+        <v>1</v>
+      </c>
+      <c r="F31" s="13"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="11">
+        <v>1</v>
+      </c>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A2:I2"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/doc/详细设计/协议/功能权限划分表.xlsx
+++ b/doc/详细设计/协议/功能权限划分表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DFD1DA-2E9E-49F9-B8BE-A551C077B65B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFEDBF8-CFC2-4CCE-9F56-A2E97438010D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>SMT防错料系统功能权限划分表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,6 +188,54 @@
   <si>
     <t>使用APP客户端进行发料
 操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用打印机软件进行打印
+操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1（编辑IPQC）</t>
+  </si>
+  <si>
+    <t>1（编辑产线操作员）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1（编辑全部）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1（编辑仓库操作员）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1（查看全部）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1（增加全部）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1（增加产线操作员）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1（增加IPQC）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1（查看IPQC）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1（查看仓库操作员）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1（增加仓库操作员）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -757,10 +805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B36" sqref="B35:B36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -770,10 +818,10 @@
     <col min="3" max="3" width="20.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="20.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="22.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24" style="1" customWidth="1"/>
     <col min="10" max="10" width="16.375" style="1" customWidth="1"/>
     <col min="11" max="11" width="16.25" style="1" customWidth="1"/>
     <col min="12" max="12" width="16.875" style="1" customWidth="1"/>
@@ -1102,20 +1150,18 @@
       <c r="B17" s="11"/>
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="16">
-        <v>1</v>
-      </c>
-      <c r="F17" s="8">
-        <v>1</v>
-      </c>
-      <c r="G17" s="9">
-        <v>1</v>
-      </c>
-      <c r="H17" s="10">
-        <v>1</v>
-      </c>
-      <c r="I17" s="11">
-        <v>1</v>
+      <c r="E17" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="10"/>
+      <c r="I17" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="J17"/>
       <c r="K17"/>
@@ -1128,20 +1174,18 @@
       <c r="B18" s="11"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="16">
-        <v>1</v>
-      </c>
-      <c r="F18" s="8">
-        <v>1</v>
-      </c>
-      <c r="G18" s="9">
-        <v>1</v>
-      </c>
-      <c r="H18" s="10">
-        <v>1</v>
-      </c>
-      <c r="I18" s="11">
-        <v>1</v>
+      <c r="E18" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="J18"/>
       <c r="K18"/>
@@ -1154,20 +1198,18 @@
       <c r="B19" s="11"/>
       <c r="C19" s="8"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="16">
-        <v>1</v>
-      </c>
-      <c r="F19" s="8">
-        <v>1</v>
-      </c>
-      <c r="G19" s="9">
-        <v>1</v>
-      </c>
-      <c r="H19" s="10">
-        <v>1</v>
-      </c>
-      <c r="I19" s="11">
-        <v>1</v>
+      <c r="E19" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="J19"/>
       <c r="K19"/>
@@ -1430,6 +1472,25 @@
       <c r="J32"/>
       <c r="K32"/>
       <c r="L32"/>
+    </row>
+    <row r="33" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="11">
+        <v>1</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="16">
+        <v>1</v>
+      </c>
+      <c r="F33" s="13"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="11">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
